--- a/uploaded_files/1_23_test0.xlsx
+++ b/uploaded_files/1_23_test0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\gadalka\uploaded_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ref1</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>line3</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
+  </si>
+  <si>
+    <t>qwe</t>
   </si>
 </sst>
 </file>
@@ -358,7 +364,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,8 +384,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -392,6 +398,9 @@
       <c r="B3" s="1">
         <v>2.5</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -443,13 +452,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10">
         <v>14</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
